--- a/data/a_fcv.xlsx
+++ b/data/a_fcv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Alt</t>
-  </si>
-  <si>
-    <t>Two Year Alt</t>
-  </si>
-  <si>
-    <t>Three Year Alt</t>
-  </si>
-  <si>
-    <t>Five Year Alt</t>
-  </si>
-  <si>
-    <t>Ten Year Alt</t>
+    <t>One Year Alt mean</t>
+  </si>
+  <si>
+    <t>One Year Alt std</t>
+  </si>
+  <si>
+    <t>Two Year Alt mean</t>
+  </si>
+  <si>
+    <t>Two Year Alt std</t>
+  </si>
+  <si>
+    <t>Three Year Alt mean</t>
+  </si>
+  <si>
+    <t>Three Year Alt std</t>
+  </si>
+  <si>
+    <t>Five Year Alt mean</t>
+  </si>
+  <si>
+    <t>Five Year Alt std</t>
+  </si>
+  <si>
+    <t>Ten Year Alt mean</t>
+  </si>
+  <si>
+    <t>Ten Year Alt std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.8136930166928851</v>
+        <v>0.8250831845436508</v>
       </c>
       <c r="D2">
-        <v>0.7915607064394127</v>
+        <v>0.0138980098013046</v>
       </c>
       <c r="E2">
-        <v>0.7744895903417188</v>
+        <v>0.7999115016361236</v>
       </c>
       <c r="F2">
-        <v>0.7461605548592994</v>
+        <v>0.008182131758107225</v>
       </c>
       <c r="G2">
-        <v>0.7271396051866486</v>
+        <v>0.7788477071139324</v>
+      </c>
+      <c r="H2">
+        <v>0.01714833512599123</v>
+      </c>
+      <c r="I2">
+        <v>0.7597791704617372</v>
+      </c>
+      <c r="J2">
+        <v>0.03736497975085206</v>
+      </c>
+      <c r="K2">
+        <v>0.7380710692274287</v>
+      </c>
+      <c r="L2">
+        <v>0.03323787960698839</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.797860674646875</v>
+        <v>0.8304159480984952</v>
       </c>
       <c r="D3">
-        <v>0.780124633368351</v>
+        <v>0.01531690306900747</v>
       </c>
       <c r="E3">
-        <v>0.7674881951993294</v>
+        <v>0.8059514657331628</v>
       </c>
       <c r="F3">
-        <v>0.7460119713936372</v>
+        <v>0.01794649390305117</v>
       </c>
       <c r="G3">
-        <v>0.7280221216170716</v>
+        <v>0.7855206638392469</v>
+      </c>
+      <c r="H3">
+        <v>0.01842389584805104</v>
+      </c>
+      <c r="I3">
+        <v>0.762627698032475</v>
+      </c>
+      <c r="J3">
+        <v>0.0361938755845554</v>
+      </c>
+      <c r="K3">
+        <v>0.7371322946399125</v>
+      </c>
+      <c r="L3">
+        <v>0.02434627599925425</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.7936409050639177</v>
+        <v>0.813596638682734</v>
       </c>
       <c r="D4">
-        <v>0.8079970981862423</v>
+        <v>0.01561174382783036</v>
       </c>
       <c r="E4">
-        <v>0.8032866964214215</v>
+        <v>0.8126114365904955</v>
       </c>
       <c r="F4">
-        <v>0.7994567148492757</v>
+        <v>0.02346061014179818</v>
       </c>
       <c r="G4">
-        <v>0.7835738568914907</v>
+        <v>0.7968011194433338</v>
+      </c>
+      <c r="H4">
+        <v>0.01913415296520009</v>
+      </c>
+      <c r="I4">
+        <v>0.8003892066782949</v>
+      </c>
+      <c r="J4">
+        <v>0.02162452076189563</v>
+      </c>
+      <c r="K4">
+        <v>0.7810029239620618</v>
+      </c>
+      <c r="L4">
+        <v>0.02917181768783366</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7751746010201058</v>
+        <v>0.7797780991180652</v>
       </c>
       <c r="D5">
-        <v>0.7701065959399591</v>
+        <v>0.0246538586828926</v>
       </c>
       <c r="E5">
-        <v>0.7674276987432969</v>
+        <v>0.7747980548851238</v>
       </c>
       <c r="F5">
-        <v>0.7575705314632188</v>
+        <v>0.01691394957716253</v>
       </c>
       <c r="G5">
-        <v>0.7679707884039059</v>
+        <v>0.7723093722228915</v>
+      </c>
+      <c r="H5">
+        <v>0.02405344085703648</v>
+      </c>
+      <c r="I5">
+        <v>0.7547810891083944</v>
+      </c>
+      <c r="J5">
+        <v>0.02903430617081509</v>
+      </c>
+      <c r="K5">
+        <v>0.7594763860428804</v>
+      </c>
+      <c r="L5">
+        <v>0.02965215656331961</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.8139099481548577</v>
+        <v>0.8268175266283684</v>
       </c>
       <c r="D6">
-        <v>0.7955711161753597</v>
+        <v>0.01161729592431021</v>
       </c>
       <c r="E6">
-        <v>0.7715514183527556</v>
+        <v>0.805500666044374</v>
       </c>
       <c r="F6">
-        <v>0.7538061072241189</v>
+        <v>0.01471296662425717</v>
       </c>
       <c r="G6">
-        <v>0.7203799143902965</v>
+        <v>0.7850203372036102</v>
+      </c>
+      <c r="H6">
+        <v>0.01414790206283466</v>
+      </c>
+      <c r="I6">
+        <v>0.7624708089687131</v>
+      </c>
+      <c r="J6">
+        <v>0.03269955414404708</v>
+      </c>
+      <c r="K6">
+        <v>0.7400858145395569</v>
+      </c>
+      <c r="L6">
+        <v>0.03100621981639643</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.8326140670343323</v>
+        <v>0.8372464580411176</v>
       </c>
       <c r="D7">
-        <v>0.8105403583796239</v>
+        <v>0.01843340251314643</v>
       </c>
       <c r="E7">
-        <v>0.7764383314439836</v>
+        <v>0.8195601686493441</v>
       </c>
       <c r="F7">
-        <v>0.749745059030823</v>
+        <v>0.02189986229073317</v>
       </c>
       <c r="G7">
-        <v>0.7518319656192272</v>
+        <v>0.8026616604770757</v>
+      </c>
+      <c r="H7">
+        <v>0.01999872103071963</v>
+      </c>
+      <c r="I7">
+        <v>0.8037101107565681</v>
+      </c>
+      <c r="J7">
+        <v>0.03050456643921642</v>
+      </c>
+      <c r="K7">
+        <v>0.7957760674428326</v>
+      </c>
+      <c r="L7">
+        <v>0.02108835906416959</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.7207803038109561</v>
+        <v>0.8291553146432497</v>
       </c>
       <c r="D8">
-        <v>0.7013014072488627</v>
+        <v>0.01013841243803716</v>
       </c>
       <c r="E8">
-        <v>0.6863701073194621</v>
+        <v>0.8224202155615098</v>
       </c>
       <c r="F8">
-        <v>0.6736528372055818</v>
+        <v>0.0146795624893133</v>
       </c>
       <c r="G8">
-        <v>0.6199622794996932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.8125903825606784</v>
-      </c>
-      <c r="D9">
-        <v>0.8122472084344506</v>
-      </c>
-      <c r="E9">
-        <v>0.8036838974384194</v>
-      </c>
-      <c r="F9">
-        <v>0.7977408601403041</v>
-      </c>
-      <c r="G9">
-        <v>0.7835852560135474</v>
+        <v>0.8149535222722433</v>
+      </c>
+      <c r="H8">
+        <v>0.01423105559472435</v>
+      </c>
+      <c r="I8">
+        <v>0.8087109016781993</v>
+      </c>
+      <c r="J8">
+        <v>0.02754606637753372</v>
+      </c>
+      <c r="K8">
+        <v>0.7858349643772906</v>
+      </c>
+      <c r="L8">
+        <v>0.02527243457665334</v>
       </c>
     </row>
   </sheetData>
